--- a/data1/account.xlsx
+++ b/data1/account.xlsx
@@ -677,7 +677,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1535,7 +1535,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -1769,7 +1769,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -1925,7 +1925,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -2240,7 +2240,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -2318,7 +2318,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -2633,7 +2633,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -2945,7 +2945,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -3019,7 +3019,7 @@
         <v>1</v>
       </c>
       <c r="N34">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -3179,7 +3179,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -3647,7 +3647,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -3881,7 +3881,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -3959,7 +3959,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -4430,7 +4430,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -4589,7 +4589,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -4670,7 +4670,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -4748,7 +4748,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -4826,7 +4826,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -5138,7 +5138,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -5216,7 +5216,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -5450,7 +5450,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -5684,7 +5684,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -6074,7 +6074,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -6152,7 +6152,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -6230,7 +6230,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -6308,7 +6308,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -6386,7 +6386,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -6542,7 +6542,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -6620,7 +6620,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -6935,7 +6935,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -7013,7 +7013,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -7091,7 +7091,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -7637,7 +7637,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
@@ -7715,7 +7715,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
@@ -7793,7 +7793,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
@@ -7871,7 +7871,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
@@ -8105,7 +8105,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
@@ -8183,7 +8183,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
@@ -8261,7 +8261,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
@@ -8339,7 +8339,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
@@ -8417,7 +8417,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P103" t="inlineStr">
@@ -8495,7 +8495,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P104" t="inlineStr">
@@ -8573,7 +8573,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P105" t="inlineStr">
@@ -8651,7 +8651,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P106" t="inlineStr">
@@ -8729,7 +8729,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P107" t="inlineStr">
@@ -8807,7 +8807,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P108" t="inlineStr">
@@ -8885,7 +8885,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P109" t="inlineStr">
@@ -9044,7 +9044,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P111" t="inlineStr">
@@ -9200,7 +9200,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P113" t="inlineStr">
@@ -9356,7 +9356,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P115" t="inlineStr">
@@ -9512,7 +9512,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P117" t="inlineStr">
@@ -9590,7 +9590,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P118" t="inlineStr">
@@ -9668,7 +9668,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P119" t="inlineStr">
@@ -9746,7 +9746,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P120" t="inlineStr">
@@ -9824,7 +9824,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P121" t="inlineStr">
@@ -10058,7 +10058,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P124" t="inlineStr">
@@ -10214,7 +10214,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P126" t="inlineStr">
@@ -10370,7 +10370,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P128" t="inlineStr">
@@ -10448,7 +10448,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P129" t="inlineStr">
@@ -10526,7 +10526,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P130" t="inlineStr">
@@ -10994,7 +10994,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P136" t="inlineStr">
@@ -11072,7 +11072,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P137" t="inlineStr">
@@ -11150,7 +11150,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P138" t="inlineStr">
@@ -11228,7 +11228,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P139" t="inlineStr">
@@ -11306,7 +11306,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P140" t="inlineStr">
@@ -11384,7 +11384,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P141" t="inlineStr">
@@ -11462,7 +11462,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P142" t="inlineStr">
@@ -11540,7 +11540,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P143" t="inlineStr">
@@ -11618,7 +11618,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P144" t="inlineStr">
@@ -11696,7 +11696,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P145" t="inlineStr">
@@ -11852,7 +11852,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P147" t="inlineStr">
@@ -11930,7 +11930,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P148" t="inlineStr">
@@ -12086,7 +12086,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P150" t="inlineStr">
@@ -12164,7 +12164,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P151" t="inlineStr">
@@ -12242,7 +12242,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P152" t="inlineStr">
@@ -12632,7 +12632,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P157" t="inlineStr">
@@ -12710,7 +12710,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P158" t="inlineStr">
@@ -12791,7 +12791,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P159" t="inlineStr">
@@ -13181,7 +13181,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P164" t="inlineStr">
@@ -13259,7 +13259,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P165" t="inlineStr">
@@ -13415,7 +13415,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P167" t="inlineStr">
@@ -13649,7 +13649,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P170" t="inlineStr">
@@ -13730,7 +13730,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P171" t="inlineStr">
@@ -13886,7 +13886,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P173" t="inlineStr">
@@ -13964,7 +13964,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P174" t="inlineStr">
@@ -14198,7 +14198,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P177" t="inlineStr">
@@ -14354,7 +14354,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P179" t="inlineStr">
@@ -14432,7 +14432,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P180" t="inlineStr">
@@ -14588,7 +14588,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P182" t="inlineStr">
@@ -14666,7 +14666,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P183" t="inlineStr">
@@ -15137,7 +15137,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P189" t="inlineStr">
@@ -15374,7 +15374,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P192" t="inlineStr">
@@ -15452,7 +15452,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P193" t="inlineStr">
@@ -15530,7 +15530,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P194" t="inlineStr">
@@ -15686,7 +15686,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P196" t="inlineStr">
@@ -15920,7 +15920,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P199" t="inlineStr">
@@ -15998,7 +15998,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P200" t="inlineStr">
@@ -16076,7 +16076,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P201" t="inlineStr">
@@ -16232,7 +16232,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P203" t="inlineStr">
@@ -16388,7 +16388,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P205" t="inlineStr">
@@ -16544,7 +16544,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P207" t="inlineStr">
@@ -16778,7 +16778,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P210" t="inlineStr">
@@ -16934,7 +16934,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P212" t="inlineStr">
@@ -17012,7 +17012,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P213" t="inlineStr">
@@ -17090,7 +17090,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P214" t="inlineStr">
@@ -17168,7 +17168,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P215" t="inlineStr">
@@ -17324,7 +17324,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P217" t="inlineStr">
@@ -17636,7 +17636,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P221" t="inlineStr">
@@ -17948,7 +17948,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P225" t="inlineStr">
@@ -18026,7 +18026,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P226" t="inlineStr">
@@ -18104,7 +18104,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P227" t="inlineStr">
@@ -18182,7 +18182,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P228" t="inlineStr">
@@ -18260,7 +18260,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P229" t="inlineStr">
@@ -18338,7 +18338,7 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P230" t="inlineStr">
@@ -18494,7 +18494,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P232" t="inlineStr">
@@ -18572,7 +18572,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P233" t="inlineStr">
@@ -18806,7 +18806,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P236" t="inlineStr">
@@ -18962,7 +18962,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P238" t="inlineStr">
@@ -19121,7 +19121,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P240" t="inlineStr">
@@ -19199,7 +19199,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P241" t="inlineStr">
@@ -19433,7 +19433,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P244" t="inlineStr">
@@ -19511,7 +19511,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P245" t="inlineStr">
@@ -19589,7 +19589,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P246" t="inlineStr">
@@ -19667,7 +19667,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P247" t="inlineStr">
@@ -19901,7 +19901,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P250" t="inlineStr">
@@ -19979,7 +19979,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P251" t="inlineStr">
@@ -20057,7 +20057,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P252" t="inlineStr">
@@ -20135,7 +20135,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P253" t="inlineStr">
@@ -20213,7 +20213,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P254" t="inlineStr">
@@ -20447,7 +20447,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P257" t="inlineStr">
@@ -20525,7 +20525,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P258" t="inlineStr">
@@ -20765,7 +20765,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P261" t="inlineStr">
@@ -20843,7 +20843,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P262" t="inlineStr">
@@ -21311,7 +21311,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P268" t="inlineStr">
@@ -21389,7 +21389,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P269" t="inlineStr">
@@ -21623,7 +21623,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P272" t="inlineStr">
@@ -21701,7 +21701,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P273" t="inlineStr">
@@ -22013,7 +22013,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P277" t="inlineStr">
@@ -22091,7 +22091,7 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P278" t="inlineStr">
@@ -22325,7 +22325,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P281" t="inlineStr">
@@ -22403,7 +22403,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P282" t="inlineStr">
@@ -23108,7 +23108,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P291" t="inlineStr">
@@ -23186,7 +23186,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P292" t="inlineStr">
@@ -23423,7 +23423,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P295" t="inlineStr">
@@ -23657,7 +23657,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P298" t="inlineStr">
@@ -23738,7 +23738,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P299" t="inlineStr">
@@ -23816,7 +23816,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P300" t="inlineStr">
@@ -23972,7 +23972,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P302" t="inlineStr">
@@ -24050,7 +24050,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P303" t="inlineStr">
@@ -24128,7 +24128,7 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P304" t="inlineStr">
@@ -24206,7 +24206,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P305" t="inlineStr">
@@ -24284,7 +24284,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P306" t="inlineStr">
@@ -24518,7 +24518,7 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P309" t="inlineStr">
@@ -24674,7 +24674,7 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P311" t="inlineStr">
@@ -24752,7 +24752,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P312" t="inlineStr">
@@ -24830,7 +24830,7 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P313" t="inlineStr">
@@ -25064,7 +25064,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P316" t="inlineStr">
@@ -25142,7 +25142,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P317" t="inlineStr">
@@ -25532,7 +25532,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P322" t="inlineStr">
@@ -25688,7 +25688,7 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P324" t="inlineStr">
@@ -25844,7 +25844,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P326" t="inlineStr">
@@ -26003,7 +26003,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P328" t="inlineStr">
@@ -26081,7 +26081,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P329" t="inlineStr">
@@ -26315,7 +26315,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P332" t="inlineStr">
@@ -26393,7 +26393,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P333" t="inlineStr">
@@ -26471,7 +26471,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P334" t="inlineStr">
@@ -26549,7 +26549,7 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P335" t="inlineStr">
@@ -26627,7 +26627,7 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P336" t="inlineStr">
@@ -26786,7 +26786,7 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P338" t="inlineStr">
@@ -26860,11 +26860,11 @@
         <v>1</v>
       </c>
       <c r="N339">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P339" t="inlineStr">
@@ -26942,7 +26942,7 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P340" t="inlineStr">
@@ -27020,7 +27020,7 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P341" t="inlineStr">
@@ -27254,7 +27254,7 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P344" t="inlineStr">
@@ -27332,7 +27332,7 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P345" t="inlineStr">
@@ -27488,7 +27488,7 @@
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P347" t="inlineStr">
@@ -27566,7 +27566,7 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P348" t="inlineStr">
@@ -27644,7 +27644,7 @@
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P349" t="inlineStr">
@@ -27878,7 +27878,7 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P352" t="inlineStr">
@@ -28112,7 +28112,7 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P355" t="inlineStr">
@@ -28190,7 +28190,7 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P356" t="inlineStr">
@@ -28268,7 +28268,7 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P357" t="inlineStr">
@@ -28661,7 +28661,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P362" t="inlineStr">
@@ -28817,7 +28817,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P364" t="inlineStr">
@@ -28895,7 +28895,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P365" t="inlineStr">
@@ -29129,7 +29129,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P368" t="inlineStr">
@@ -29207,7 +29207,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P369" t="inlineStr">
@@ -29366,7 +29366,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P371" t="inlineStr">
@@ -29444,7 +29444,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P372" t="inlineStr">
@@ -29912,7 +29912,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P378" t="inlineStr">
@@ -29990,7 +29990,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P379" t="inlineStr">
@@ -30224,7 +30224,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P382" t="inlineStr">
@@ -30380,7 +30380,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P384" t="inlineStr">
@@ -30458,7 +30458,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P385" t="inlineStr">
@@ -30692,7 +30692,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P388" t="inlineStr">
@@ -31082,7 +31082,7 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P393" t="inlineStr">
@@ -31238,7 +31238,7 @@
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P395" t="inlineStr">
@@ -31472,7 +31472,7 @@
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P398" t="inlineStr">
@@ -31631,7 +31631,7 @@
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P400" t="inlineStr">
@@ -31787,7 +31787,7 @@
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P402" t="inlineStr">
@@ -31865,7 +31865,7 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P403" t="inlineStr">
@@ -31943,7 +31943,7 @@
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P404" t="inlineStr">
@@ -32411,7 +32411,7 @@
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P410" t="inlineStr">
@@ -32489,7 +32489,7 @@
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P411" t="inlineStr">
@@ -32723,7 +32723,7 @@
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P414" t="inlineStr">
@@ -32879,7 +32879,7 @@
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P416" t="inlineStr">
@@ -33038,7 +33038,7 @@
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P418" t="inlineStr">
@@ -33194,7 +33194,7 @@
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P420" t="inlineStr">
@@ -33350,7 +33350,7 @@
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P422" t="inlineStr">
@@ -33584,7 +33584,7 @@
       </c>
       <c r="O425" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P425" t="inlineStr">
@@ -33662,7 +33662,7 @@
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P426" t="inlineStr">
@@ -33818,7 +33818,7 @@
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P428" t="inlineStr">
@@ -33974,7 +33974,7 @@
       </c>
       <c r="O430" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P430" t="inlineStr">
@@ -34052,7 +34052,7 @@
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P431" t="inlineStr">
@@ -34211,7 +34211,7 @@
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P433" t="inlineStr">
@@ -34292,7 +34292,7 @@
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P434" t="inlineStr">
@@ -34370,7 +34370,7 @@
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P435" t="inlineStr">
@@ -34526,7 +34526,7 @@
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P437" t="inlineStr">
@@ -34604,7 +34604,7 @@
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P438" t="inlineStr">
@@ -35228,7 +35228,7 @@
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P446" t="inlineStr">
@@ -35306,7 +35306,7 @@
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P447" t="inlineStr">
@@ -35384,7 +35384,7 @@
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P448" t="inlineStr">
@@ -35462,7 +35462,7 @@
       </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P449" t="inlineStr">
@@ -35540,7 +35540,7 @@
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P450" t="inlineStr">
@@ -35621,7 +35621,7 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P451" t="inlineStr">
@@ -35777,7 +35777,7 @@
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P453" t="inlineStr">
@@ -35855,7 +35855,7 @@
       </c>
       <c r="O454" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P454" t="inlineStr">
@@ -35933,7 +35933,7 @@
       </c>
       <c r="O455" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P455" t="inlineStr">
@@ -36011,7 +36011,7 @@
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P456" t="inlineStr">
@@ -36170,7 +36170,7 @@
       </c>
       <c r="O458" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P458" t="inlineStr">
@@ -36248,7 +36248,7 @@
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P459" t="inlineStr">
@@ -36326,7 +36326,7 @@
       </c>
       <c r="O460" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P460" t="inlineStr">
@@ -36482,7 +36482,7 @@
       </c>
       <c r="O462" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P462" t="inlineStr">
@@ -36638,7 +36638,7 @@
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P464" t="inlineStr">
@@ -36872,7 +36872,7 @@
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P467" t="inlineStr">
@@ -37187,7 +37187,7 @@
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P471" t="inlineStr">
@@ -37265,7 +37265,7 @@
       </c>
       <c r="O472" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P472" t="inlineStr">
@@ -37343,7 +37343,7 @@
       </c>
       <c r="O473" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P473" t="inlineStr">
@@ -37499,7 +37499,7 @@
       </c>
       <c r="O475" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P475" t="inlineStr">
@@ -37655,7 +37655,7 @@
       </c>
       <c r="O477" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P477" t="inlineStr">
@@ -37733,7 +37733,7 @@
       </c>
       <c r="O478" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P478" t="inlineStr">
@@ -37811,7 +37811,7 @@
       </c>
       <c r="O479" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P479" t="inlineStr">
@@ -37967,7 +37967,7 @@
       </c>
       <c r="O481" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P481" t="inlineStr">
@@ -38045,7 +38045,7 @@
       </c>
       <c r="O482" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P482" t="inlineStr">
@@ -38360,7 +38360,7 @@
       </c>
       <c r="O486" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P486" t="inlineStr">
@@ -38516,7 +38516,7 @@
       </c>
       <c r="O488" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P488" t="inlineStr">
@@ -38594,7 +38594,7 @@
       </c>
       <c r="O489" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P489" t="inlineStr">
@@ -38672,7 +38672,7 @@
       </c>
       <c r="O490" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P490" t="inlineStr">
@@ -38750,7 +38750,7 @@
       </c>
       <c r="O491" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P491" t="inlineStr">
@@ -38828,7 +38828,7 @@
       </c>
       <c r="O492" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P492" t="inlineStr">
@@ -38909,7 +38909,7 @@
       </c>
       <c r="O493" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P493" t="inlineStr">
@@ -39065,7 +39065,7 @@
       </c>
       <c r="O495" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P495" t="inlineStr">
@@ -39143,7 +39143,7 @@
       </c>
       <c r="O496" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P496" t="inlineStr">
@@ -39221,7 +39221,7 @@
       </c>
       <c r="O497" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P497" t="inlineStr">
@@ -39377,7 +39377,7 @@
       </c>
       <c r="O499" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P499" t="inlineStr">
@@ -39455,7 +39455,7 @@
       </c>
       <c r="O500" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P500" t="inlineStr">
@@ -39689,7 +39689,7 @@
       </c>
       <c r="O503" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P503" t="inlineStr">
@@ -39767,7 +39767,7 @@
       </c>
       <c r="O504" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P504" t="inlineStr">
@@ -39923,7 +39923,7 @@
       </c>
       <c r="O506" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P506" t="inlineStr">
@@ -40001,7 +40001,7 @@
       </c>
       <c r="O507" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P507" t="inlineStr">
@@ -40157,7 +40157,7 @@
       </c>
       <c r="O509" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P509" t="inlineStr">
@@ -40235,7 +40235,7 @@
       </c>
       <c r="O510" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P510" t="inlineStr">
@@ -40313,7 +40313,7 @@
       </c>
       <c r="O511" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P511" t="inlineStr">
@@ -40391,7 +40391,7 @@
       </c>
       <c r="O512" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P512" t="inlineStr">
@@ -40469,7 +40469,7 @@
       </c>
       <c r="O513" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P513" t="inlineStr">
@@ -40703,7 +40703,7 @@
       </c>
       <c r="O516" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P516" t="inlineStr">
@@ -40937,7 +40937,7 @@
       </c>
       <c r="O519" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P519" t="inlineStr">
@@ -41015,7 +41015,7 @@
       </c>
       <c r="O520" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P520" t="inlineStr">
@@ -41093,7 +41093,7 @@
       </c>
       <c r="O521" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P521" t="inlineStr">
@@ -41249,7 +41249,7 @@
       </c>
       <c r="O523" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P523" t="inlineStr">
@@ -41327,7 +41327,7 @@
       </c>
       <c r="O524" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P524" t="inlineStr">
@@ -41405,7 +41405,7 @@
       </c>
       <c r="O525" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P525" t="inlineStr">
@@ -41483,7 +41483,7 @@
       </c>
       <c r="O526" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P526" t="inlineStr">
@@ -41639,7 +41639,7 @@
       </c>
       <c r="O528" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P528" t="inlineStr">
@@ -41795,7 +41795,7 @@
       </c>
       <c r="O530" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P530" t="inlineStr">
@@ -41951,7 +41951,7 @@
       </c>
       <c r="O532" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P532" t="inlineStr">
@@ -42419,7 +42419,7 @@
       </c>
       <c r="O538" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P538" t="inlineStr">
@@ -42497,7 +42497,7 @@
       </c>
       <c r="O539" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P539" t="inlineStr">
@@ -42809,7 +42809,7 @@
       </c>
       <c r="O543" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P543" t="inlineStr">
@@ -42965,7 +42965,7 @@
       </c>
       <c r="O545" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P545" t="inlineStr">
@@ -43355,7 +43355,7 @@
       </c>
       <c r="O550" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P550" t="inlineStr">
@@ -43433,7 +43433,7 @@
       </c>
       <c r="O551" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P551" t="inlineStr">
@@ -43511,7 +43511,7 @@
       </c>
       <c r="O552" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P552" t="inlineStr">
@@ -43667,7 +43667,7 @@
       </c>
       <c r="O554" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P554" t="inlineStr">
@@ -43823,7 +43823,7 @@
       </c>
       <c r="O556" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P556" t="inlineStr">
@@ -44057,7 +44057,7 @@
       </c>
       <c r="O559" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P559" t="inlineStr">
@@ -44213,7 +44213,7 @@
       </c>
       <c r="O561" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P561" t="inlineStr">
@@ -44291,7 +44291,7 @@
       </c>
       <c r="O562" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P562" t="inlineStr">
@@ -44369,7 +44369,7 @@
       </c>
       <c r="O563" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P563" t="inlineStr">
@@ -44447,7 +44447,7 @@
       </c>
       <c r="O564" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P564" t="inlineStr">
@@ -44525,7 +44525,7 @@
       </c>
       <c r="O565" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P565" t="inlineStr">
@@ -44603,7 +44603,7 @@
       </c>
       <c r="O566" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P566" t="inlineStr">
@@ -44681,7 +44681,7 @@
       </c>
       <c r="O567" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P567" t="inlineStr">
@@ -44837,7 +44837,7 @@
       </c>
       <c r="O569" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P569" t="inlineStr">
@@ -44915,7 +44915,7 @@
       </c>
       <c r="O570" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P570" t="inlineStr">
@@ -44993,7 +44993,7 @@
       </c>
       <c r="O571" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P571" t="inlineStr">
@@ -45149,7 +45149,7 @@
       </c>
       <c r="O573" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P573" t="inlineStr">
@@ -45227,7 +45227,7 @@
       </c>
       <c r="O574" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P574" t="inlineStr">
@@ -45305,7 +45305,7 @@
       </c>
       <c r="O575" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P575" t="inlineStr">
@@ -45461,7 +45461,7 @@
       </c>
       <c r="O577" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P577" t="inlineStr">
@@ -45539,7 +45539,7 @@
       </c>
       <c r="O578" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P578" t="inlineStr">
@@ -45695,7 +45695,7 @@
       </c>
       <c r="O580" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P580" t="inlineStr">
@@ -45776,7 +45776,7 @@
       </c>
       <c r="O581" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P581" t="inlineStr">
@@ -45932,7 +45932,7 @@
       </c>
       <c r="O583" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P583" t="inlineStr">
@@ -46010,7 +46010,7 @@
       </c>
       <c r="O584" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P584" t="inlineStr">
@@ -46244,7 +46244,7 @@
       </c>
       <c r="O587" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P587" t="inlineStr">
@@ -46556,7 +46556,7 @@
       </c>
       <c r="O591" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P591" t="inlineStr">
@@ -46634,7 +46634,7 @@
       </c>
       <c r="O592" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P592" t="inlineStr">
@@ -46949,7 +46949,7 @@
       </c>
       <c r="O596" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P596" t="inlineStr">
@@ -47417,7 +47417,7 @@
       </c>
       <c r="O602" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P602" t="inlineStr">
@@ -47807,7 +47807,7 @@
       </c>
       <c r="O607" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P607" t="inlineStr">
@@ -47885,7 +47885,7 @@
       </c>
       <c r="O608" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P608" t="inlineStr">
@@ -47966,7 +47966,7 @@
       </c>
       <c r="O609" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P609" t="inlineStr">
@@ -48200,7 +48200,7 @@
       </c>
       <c r="O612" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P612" t="inlineStr">
@@ -48278,7 +48278,7 @@
       </c>
       <c r="O613" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P613" t="inlineStr">
@@ -48434,7 +48434,7 @@
       </c>
       <c r="O615" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P615" t="inlineStr">
@@ -48512,7 +48512,7 @@
       </c>
       <c r="O616" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P616" t="inlineStr">
@@ -48590,7 +48590,7 @@
       </c>
       <c r="O617" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P617" t="inlineStr">
@@ -48668,7 +48668,7 @@
       </c>
       <c r="O618" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P618" t="inlineStr">
@@ -48746,7 +48746,7 @@
       </c>
       <c r="O619" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P619" t="inlineStr">
@@ -48902,7 +48902,7 @@
       </c>
       <c r="O621" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P621" t="inlineStr">
@@ -48980,7 +48980,7 @@
       </c>
       <c r="O622" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P622" t="inlineStr">
@@ -49136,7 +49136,7 @@
       </c>
       <c r="O624" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P624" t="inlineStr">
@@ -49214,7 +49214,7 @@
       </c>
       <c r="O625" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P625" t="inlineStr">
@@ -49292,7 +49292,7 @@
       </c>
       <c r="O626" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P626" t="inlineStr">
@@ -49370,7 +49370,7 @@
       </c>
       <c r="O627" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P627" t="inlineStr">
@@ -49604,7 +49604,7 @@
       </c>
       <c r="O630" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P630" t="inlineStr">
@@ -49682,7 +49682,7 @@
       </c>
       <c r="O631" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P631" t="inlineStr">
@@ -49760,7 +49760,7 @@
       </c>
       <c r="O632" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P632" t="inlineStr">
@@ -49916,7 +49916,7 @@
       </c>
       <c r="O634" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P634" t="inlineStr">
@@ -49994,7 +49994,7 @@
       </c>
       <c r="O635" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P635" t="inlineStr">
@@ -50072,7 +50072,7 @@
       </c>
       <c r="O636" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P636" t="inlineStr">
@@ -50306,7 +50306,7 @@
       </c>
       <c r="O639" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P639" t="inlineStr">
@@ -50384,7 +50384,7 @@
       </c>
       <c r="O640" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P640" t="inlineStr">
@@ -50462,7 +50462,7 @@
       </c>
       <c r="O641" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P641" t="inlineStr">
@@ -50540,7 +50540,7 @@
       </c>
       <c r="O642" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P642" t="inlineStr">
@@ -50618,7 +50618,7 @@
       </c>
       <c r="O643" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P643" t="inlineStr">
@@ -50774,7 +50774,7 @@
       </c>
       <c r="O645" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P645" t="inlineStr">
@@ -50930,7 +50930,7 @@
       </c>
       <c r="O647" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P647" t="inlineStr">
@@ -51008,7 +51008,7 @@
       </c>
       <c r="O648" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P648" t="inlineStr">
@@ -51086,7 +51086,7 @@
       </c>
       <c r="O649" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P649" t="inlineStr">
@@ -51320,7 +51320,7 @@
       </c>
       <c r="O652" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P652" t="inlineStr">
@@ -51398,7 +51398,7 @@
       </c>
       <c r="O653" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P653" t="inlineStr">
@@ -51476,7 +51476,7 @@
       </c>
       <c r="O654" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P654" t="inlineStr">
@@ -51554,7 +51554,7 @@
       </c>
       <c r="O655" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P655" t="inlineStr">
@@ -51710,7 +51710,7 @@
       </c>
       <c r="O657" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P657" t="inlineStr">
@@ -51944,7 +51944,7 @@
       </c>
       <c r="O660" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P660" t="inlineStr">
@@ -52022,7 +52022,7 @@
       </c>
       <c r="O661" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P661" t="inlineStr">
@@ -52256,7 +52256,7 @@
       </c>
       <c r="O664" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P664" t="inlineStr">
@@ -52334,7 +52334,7 @@
       </c>
       <c r="O665" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P665" t="inlineStr">
@@ -52412,7 +52412,7 @@
       </c>
       <c r="O666" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P666" t="inlineStr">
@@ -52490,7 +52490,7 @@
       </c>
       <c r="O667" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P667" t="inlineStr">
@@ -52646,7 +52646,7 @@
       </c>
       <c r="O669" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P669" t="inlineStr">
@@ -52724,7 +52724,7 @@
       </c>
       <c r="O670" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P670" t="inlineStr">
@@ -52880,7 +52880,7 @@
       </c>
       <c r="O672" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P672" t="inlineStr">
@@ -52958,7 +52958,7 @@
       </c>
       <c r="O673" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P673" t="inlineStr">
@@ -53036,7 +53036,7 @@
       </c>
       <c r="O674" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P674" t="inlineStr">
@@ -53114,7 +53114,7 @@
       </c>
       <c r="O675" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P675" t="inlineStr">
@@ -53270,7 +53270,7 @@
       </c>
       <c r="O677" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P677" t="inlineStr">
@@ -53348,7 +53348,7 @@
       </c>
       <c r="O678" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P678" t="inlineStr">
@@ -53504,7 +53504,7 @@
       </c>
       <c r="O680" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P680" t="inlineStr">
@@ -53582,7 +53582,7 @@
       </c>
       <c r="O681" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P681" t="inlineStr">
@@ -53738,7 +53738,7 @@
       </c>
       <c r="O683" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P683" t="inlineStr">
@@ -53894,7 +53894,7 @@
       </c>
       <c r="O685" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P685" t="inlineStr">
@@ -54128,7 +54128,7 @@
       </c>
       <c r="O688" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P688" t="inlineStr">
@@ -54284,7 +54284,7 @@
       </c>
       <c r="O690" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P690" t="inlineStr">
@@ -54362,7 +54362,7 @@
       </c>
       <c r="O691" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P691" t="inlineStr">
@@ -54440,7 +54440,7 @@
       </c>
       <c r="O692" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P692" t="inlineStr">
@@ -54518,7 +54518,7 @@
       </c>
       <c r="O693" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P693" t="inlineStr">
@@ -54670,11 +54670,11 @@
         <v>0</v>
       </c>
       <c r="N695">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O695" t="inlineStr">
         <is>
-          <t>&lt;30</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P695" t="inlineStr">
@@ -54908,7 +54908,7 @@
       </c>
       <c r="O698" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P698" t="inlineStr">
@@ -54989,7 +54989,7 @@
       </c>
       <c r="O699" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P699" t="inlineStr">
@@ -55226,7 +55226,7 @@
       </c>
       <c r="O702" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P702" t="inlineStr">
@@ -55307,7 +55307,7 @@
       </c>
       <c r="O703" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P703" t="inlineStr">
@@ -55385,7 +55385,7 @@
       </c>
       <c r="O704" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P704" t="inlineStr">
@@ -55463,7 +55463,7 @@
       </c>
       <c r="O705" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P705" t="inlineStr">
@@ -55541,7 +55541,7 @@
       </c>
       <c r="O706" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P706" t="inlineStr">
@@ -55619,7 +55619,7 @@
       </c>
       <c r="O707" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P707" t="inlineStr">
@@ -55697,7 +55697,7 @@
       </c>
       <c r="O708" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P708" t="inlineStr">
@@ -55775,7 +55775,7 @@
       </c>
       <c r="O709" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P709" t="inlineStr">
@@ -55931,7 +55931,7 @@
       </c>
       <c r="O711" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P711" t="inlineStr">
@@ -56009,7 +56009,7 @@
       </c>
       <c r="O712" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P712" t="inlineStr">
@@ -56090,7 +56090,7 @@
       </c>
       <c r="O713" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P713" t="inlineStr">
@@ -56405,7 +56405,7 @@
       </c>
       <c r="O717" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P717" t="inlineStr">
@@ -56561,7 +56561,7 @@
       </c>
       <c r="O719" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P719" t="inlineStr">
@@ -56639,7 +56639,7 @@
       </c>
       <c r="O720" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P720" t="inlineStr">
@@ -56717,7 +56717,7 @@
       </c>
       <c r="O721" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P721" t="inlineStr">
@@ -56951,7 +56951,7 @@
       </c>
       <c r="O724" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P724" t="inlineStr">
@@ -57029,7 +57029,7 @@
       </c>
       <c r="O725" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P725" t="inlineStr">
@@ -57107,7 +57107,7 @@
       </c>
       <c r="O726" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P726" t="inlineStr">
@@ -57185,7 +57185,7 @@
       </c>
       <c r="O727" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P727" t="inlineStr">
@@ -57263,7 +57263,7 @@
       </c>
       <c r="O728" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P728" t="inlineStr">
@@ -57341,7 +57341,7 @@
       </c>
       <c r="O729" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P729" t="inlineStr">
@@ -57497,7 +57497,7 @@
       </c>
       <c r="O731" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P731" t="inlineStr">
@@ -57578,7 +57578,7 @@
       </c>
       <c r="O732" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P732" t="inlineStr">
@@ -57890,7 +57890,7 @@
       </c>
       <c r="O736" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P736" t="inlineStr">
@@ -57968,7 +57968,7 @@
       </c>
       <c r="O737" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P737" t="inlineStr">
@@ -58124,7 +58124,7 @@
       </c>
       <c r="O739" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P739" t="inlineStr">
@@ -58280,7 +58280,7 @@
       </c>
       <c r="O741" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P741" t="inlineStr">
@@ -58358,7 +58358,7 @@
       </c>
       <c r="O742" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P742" t="inlineStr">
@@ -58436,7 +58436,7 @@
       </c>
       <c r="O743" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P743" t="inlineStr">
@@ -58592,7 +58592,7 @@
       </c>
       <c r="O745" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P745" t="inlineStr">
@@ -58826,7 +58826,7 @@
       </c>
       <c r="O748" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P748" t="inlineStr">
@@ -58904,7 +58904,7 @@
       </c>
       <c r="O749" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P749" t="inlineStr">
@@ -58982,7 +58982,7 @@
       </c>
       <c r="O750" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P750" t="inlineStr">
@@ -59060,7 +59060,7 @@
       </c>
       <c r="O751" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P751" t="inlineStr">
@@ -59294,7 +59294,7 @@
       </c>
       <c r="O754" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P754" t="inlineStr">
@@ -59372,7 +59372,7 @@
       </c>
       <c r="O755" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P755" t="inlineStr">
@@ -59450,7 +59450,7 @@
       </c>
       <c r="O756" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P756" t="inlineStr">
@@ -59609,7 +59609,7 @@
       </c>
       <c r="O758" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P758" t="inlineStr">
@@ -59687,7 +59687,7 @@
       </c>
       <c r="O759" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P759" t="inlineStr">
@@ -59765,7 +59765,7 @@
       </c>
       <c r="O760" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P760" t="inlineStr">
@@ -59999,7 +59999,7 @@
       </c>
       <c r="O763" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P763" t="inlineStr">
@@ -60077,7 +60077,7 @@
       </c>
       <c r="O764" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P764" t="inlineStr">
@@ -60233,7 +60233,7 @@
       </c>
       <c r="O766" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P766" t="inlineStr">
@@ -60467,7 +60467,7 @@
       </c>
       <c r="O769" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P769" t="inlineStr">
@@ -60779,7 +60779,7 @@
       </c>
       <c r="O773" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P773" t="inlineStr">
@@ -60857,7 +60857,7 @@
       </c>
       <c r="O774" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P774" t="inlineStr">
@@ -60935,7 +60935,7 @@
       </c>
       <c r="O775" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P775" t="inlineStr">
@@ -61250,7 +61250,7 @@
       </c>
       <c r="O779" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P779" t="inlineStr">
@@ -61406,7 +61406,7 @@
       </c>
       <c r="O781" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P781" t="inlineStr">
@@ -61480,11 +61480,11 @@
         <v>0</v>
       </c>
       <c r="N782">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O782" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P782" t="inlineStr">
@@ -61952,7 +61952,7 @@
       </c>
       <c r="O788" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P788" t="inlineStr">
@@ -62030,7 +62030,7 @@
       </c>
       <c r="O789" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P789" t="inlineStr">
@@ -62108,7 +62108,7 @@
       </c>
       <c r="O790" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P790" t="inlineStr">
@@ -62186,7 +62186,7 @@
       </c>
       <c r="O791" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P791" t="inlineStr">
@@ -62264,7 +62264,7 @@
       </c>
       <c r="O792" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P792" t="inlineStr">
@@ -62420,7 +62420,7 @@
       </c>
       <c r="O794" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P794" t="inlineStr">
@@ -62498,7 +62498,7 @@
       </c>
       <c r="O795" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P795" t="inlineStr">
@@ -62576,7 +62576,7 @@
       </c>
       <c r="O796" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P796" t="inlineStr">
@@ -62654,7 +62654,7 @@
       </c>
       <c r="O797" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P797" t="inlineStr">
@@ -62891,7 +62891,7 @@
       </c>
       <c r="O800" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P800" t="inlineStr">
@@ -62969,7 +62969,7 @@
       </c>
       <c r="O801" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P801" t="inlineStr">
@@ -63203,7 +63203,7 @@
       </c>
       <c r="O804" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P804" t="inlineStr">
@@ -63281,7 +63281,7 @@
       </c>
       <c r="O805" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P805" t="inlineStr">
@@ -63359,7 +63359,7 @@
       </c>
       <c r="O806" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P806" t="inlineStr">
@@ -63437,7 +63437,7 @@
       </c>
       <c r="O807" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P807" t="inlineStr">
@@ -63593,7 +63593,7 @@
       </c>
       <c r="O809" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P809" t="inlineStr">
@@ -63749,7 +63749,7 @@
       </c>
       <c r="O811" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P811" t="inlineStr">
@@ -63830,7 +63830,7 @@
       </c>
       <c r="O812" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P812" t="inlineStr">
@@ -63908,7 +63908,7 @@
       </c>
       <c r="O813" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P813" t="inlineStr">
@@ -63986,7 +63986,7 @@
       </c>
       <c r="O814" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P814" t="inlineStr">
@@ -64064,7 +64064,7 @@
       </c>
       <c r="O815" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P815" t="inlineStr">
@@ -64142,7 +64142,7 @@
       </c>
       <c r="O816" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P816" t="inlineStr">
@@ -64220,7 +64220,7 @@
       </c>
       <c r="O817" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P817" t="inlineStr">
@@ -64298,7 +64298,7 @@
       </c>
       <c r="O818" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P818" t="inlineStr">
@@ -64376,7 +64376,7 @@
       </c>
       <c r="O819" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P819" t="inlineStr">
@@ -64532,7 +64532,7 @@
       </c>
       <c r="O821" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P821" t="inlineStr">
@@ -64766,7 +64766,7 @@
       </c>
       <c r="O824" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P824" t="inlineStr">
@@ -65546,7 +65546,7 @@
       </c>
       <c r="O834" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P834" t="inlineStr">
@@ -65702,7 +65702,7 @@
       </c>
       <c r="O836" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P836" t="inlineStr">
@@ -65936,7 +65936,7 @@
       </c>
       <c r="O839" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P839" t="inlineStr">
@@ -66014,7 +66014,7 @@
       </c>
       <c r="O840" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P840" t="inlineStr">
@@ -66092,7 +66092,7 @@
       </c>
       <c r="O841" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P841" t="inlineStr">
@@ -66170,7 +66170,7 @@
       </c>
       <c r="O842" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P842" t="inlineStr">
@@ -66248,7 +66248,7 @@
       </c>
       <c r="O843" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P843" t="inlineStr">
@@ -66326,7 +66326,7 @@
       </c>
       <c r="O844" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P844" t="inlineStr">
@@ -66404,7 +66404,7 @@
       </c>
       <c r="O845" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P845" t="inlineStr">
@@ -66560,7 +66560,7 @@
       </c>
       <c r="O847" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P847" t="inlineStr">
@@ -66638,7 +66638,7 @@
       </c>
       <c r="O848" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P848" t="inlineStr">
@@ -66794,7 +66794,7 @@
       </c>
       <c r="O850" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P850" t="inlineStr">
@@ -66950,7 +66950,7 @@
       </c>
       <c r="O852" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P852" t="inlineStr">
@@ -67028,7 +67028,7 @@
       </c>
       <c r="O853" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P853" t="inlineStr">
@@ -67184,7 +67184,7 @@
       </c>
       <c r="O855" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P855" t="inlineStr">
@@ -67262,7 +67262,7 @@
       </c>
       <c r="O856" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P856" t="inlineStr">
@@ -67340,7 +67340,7 @@
       </c>
       <c r="O857" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P857" t="inlineStr">
@@ -67418,7 +67418,7 @@
       </c>
       <c r="O858" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P858" t="inlineStr">
@@ -67574,7 +67574,7 @@
       </c>
       <c r="O860" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P860" t="inlineStr">
@@ -67730,7 +67730,7 @@
       </c>
       <c r="O862" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P862" t="inlineStr">
@@ -68120,7 +68120,7 @@
       </c>
       <c r="O867" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P867" t="inlineStr">
@@ -68198,7 +68198,7 @@
       </c>
       <c r="O868" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P868" t="inlineStr">
@@ -68276,7 +68276,7 @@
       </c>
       <c r="O869" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P869" t="inlineStr">
@@ -68354,7 +68354,7 @@
       </c>
       <c r="O870" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P870" t="inlineStr">
@@ -68432,7 +68432,7 @@
       </c>
       <c r="O871" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P871" t="inlineStr">
@@ -68510,7 +68510,7 @@
       </c>
       <c r="O872" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P872" t="inlineStr">
@@ -68744,7 +68744,7 @@
       </c>
       <c r="O875" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P875" t="inlineStr">
@@ -68900,7 +68900,7 @@
       </c>
       <c r="O877" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P877" t="inlineStr">
@@ -68978,7 +68978,7 @@
       </c>
       <c r="O878" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P878" t="inlineStr">
@@ -69056,7 +69056,7 @@
       </c>
       <c r="O879" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P879" t="inlineStr">
@@ -69134,7 +69134,7 @@
       </c>
       <c r="O880" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P880" t="inlineStr">
@@ -69290,7 +69290,7 @@
       </c>
       <c r="O882" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P882" t="inlineStr">
@@ -69602,7 +69602,7 @@
       </c>
       <c r="O886" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P886" t="inlineStr">
@@ -69680,7 +69680,7 @@
       </c>
       <c r="O887" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P887" t="inlineStr">
@@ -69758,7 +69758,7 @@
       </c>
       <c r="O888" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P888" t="inlineStr">
@@ -69914,7 +69914,7 @@
       </c>
       <c r="O890" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P890" t="inlineStr">
@@ -69992,7 +69992,7 @@
       </c>
       <c r="O891" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P891" t="inlineStr">
@@ -70304,7 +70304,7 @@
       </c>
       <c r="O895" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P895" t="inlineStr">
@@ -70382,7 +70382,7 @@
       </c>
       <c r="O896" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P896" t="inlineStr">
@@ -70463,7 +70463,7 @@
       </c>
       <c r="O897" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P897" t="inlineStr">
@@ -70697,7 +70697,7 @@
       </c>
       <c r="O900" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P900" t="inlineStr">
@@ -70775,7 +70775,7 @@
       </c>
       <c r="O901" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P901" t="inlineStr">
@@ -70853,7 +70853,7 @@
       </c>
       <c r="O902" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P902" t="inlineStr">
@@ -71165,7 +71165,7 @@
       </c>
       <c r="O906" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P906" t="inlineStr">
@@ -71243,7 +71243,7 @@
       </c>
       <c r="O907" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P907" t="inlineStr">
@@ -71477,7 +71477,7 @@
       </c>
       <c r="O910" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P910" t="inlineStr">
@@ -71555,7 +71555,7 @@
       </c>
       <c r="O911" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P911" t="inlineStr">
@@ -71633,7 +71633,7 @@
       </c>
       <c r="O912" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P912" t="inlineStr">
@@ -71789,7 +71789,7 @@
       </c>
       <c r="O914" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P914" t="inlineStr">
@@ -71945,7 +71945,7 @@
       </c>
       <c r="O916" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P916" t="inlineStr">
@@ -72023,7 +72023,7 @@
       </c>
       <c r="O917" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P917" t="inlineStr">
@@ -72104,7 +72104,7 @@
       </c>
       <c r="O918" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P918" t="inlineStr">
@@ -72260,7 +72260,7 @@
       </c>
       <c r="O920" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P920" t="inlineStr">
@@ -72338,7 +72338,7 @@
       </c>
       <c r="O921" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P921" t="inlineStr">
@@ -72494,7 +72494,7 @@
       </c>
       <c r="O923" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P923" t="inlineStr">
@@ -72572,7 +72572,7 @@
       </c>
       <c r="O924" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P924" t="inlineStr">
@@ -72650,7 +72650,7 @@
       </c>
       <c r="O925" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P925" t="inlineStr">
@@ -72806,7 +72806,7 @@
       </c>
       <c r="O927" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P927" t="inlineStr">
@@ -73118,7 +73118,7 @@
       </c>
       <c r="O931" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P931" t="inlineStr">
@@ -73199,7 +73199,7 @@
       </c>
       <c r="O932" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P932" t="inlineStr">
@@ -73277,7 +73277,7 @@
       </c>
       <c r="O933" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P933" t="inlineStr">
@@ -73355,7 +73355,7 @@
       </c>
       <c r="O934" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P934" t="inlineStr">
@@ -73667,7 +73667,7 @@
       </c>
       <c r="O938" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P938" t="inlineStr">
@@ -73745,7 +73745,7 @@
       </c>
       <c r="O939" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P939" t="inlineStr">
@@ -73823,7 +73823,7 @@
       </c>
       <c r="O940" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P940" t="inlineStr">
@@ -73901,7 +73901,7 @@
       </c>
       <c r="O941" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P941" t="inlineStr">
@@ -74060,7 +74060,7 @@
       </c>
       <c r="O943" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P943" t="inlineStr">
@@ -74216,7 +74216,7 @@
       </c>
       <c r="O945" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P945" t="inlineStr">
@@ -74294,7 +74294,7 @@
       </c>
       <c r="O946" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P946" t="inlineStr">
@@ -74372,7 +74372,7 @@
       </c>
       <c r="O947" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P947" t="inlineStr">
@@ -74450,7 +74450,7 @@
       </c>
       <c r="O948" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P948" t="inlineStr">
@@ -74684,7 +74684,7 @@
       </c>
       <c r="O951" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P951" t="inlineStr">
@@ -74840,7 +74840,7 @@
       </c>
       <c r="O953" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P953" t="inlineStr">
@@ -74996,7 +74996,7 @@
       </c>
       <c r="O955" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P955" t="inlineStr">
@@ -75074,7 +75074,7 @@
       </c>
       <c r="O956" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P956" t="inlineStr">
@@ -75230,7 +75230,7 @@
       </c>
       <c r="O958" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P958" t="inlineStr">
@@ -75386,7 +75386,7 @@
       </c>
       <c r="O960" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P960" t="inlineStr">
@@ -75464,7 +75464,7 @@
       </c>
       <c r="O961" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P961" t="inlineStr">
@@ -75620,7 +75620,7 @@
       </c>
       <c r="O963" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P963" t="inlineStr">
@@ -75698,7 +75698,7 @@
       </c>
       <c r="O964" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P964" t="inlineStr">
@@ -75854,7 +75854,7 @@
       </c>
       <c r="O966" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P966" t="inlineStr">
@@ -75932,7 +75932,7 @@
       </c>
       <c r="O967" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P967" t="inlineStr">
@@ -76088,7 +76088,7 @@
       </c>
       <c r="O969" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P969" t="inlineStr">
@@ -76244,7 +76244,7 @@
       </c>
       <c r="O971" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P971" t="inlineStr">
@@ -76322,7 +76322,7 @@
       </c>
       <c r="O972" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P972" t="inlineStr">
@@ -76403,7 +76403,7 @@
       </c>
       <c r="O973" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P973" t="inlineStr">
@@ -76637,7 +76637,7 @@
       </c>
       <c r="O976" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P976" t="inlineStr">
@@ -76793,7 +76793,7 @@
       </c>
       <c r="O978" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P978" t="inlineStr">
@@ -76949,7 +76949,7 @@
       </c>
       <c r="O980" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P980" t="inlineStr">
@@ -77027,7 +77027,7 @@
       </c>
       <c r="O981" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P981" t="inlineStr">
@@ -77105,7 +77105,7 @@
       </c>
       <c r="O982" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P982" t="inlineStr">
@@ -77183,7 +77183,7 @@
       </c>
       <c r="O983" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P983" t="inlineStr">
@@ -77261,7 +77261,7 @@
       </c>
       <c r="O984" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P984" t="inlineStr">
@@ -77420,7 +77420,7 @@
       </c>
       <c r="O986" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P986" t="inlineStr">
@@ -77498,7 +77498,7 @@
       </c>
       <c r="O987" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P987" t="inlineStr">
@@ -77576,7 +77576,7 @@
       </c>
       <c r="O988" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P988" t="inlineStr">
@@ -77732,7 +77732,7 @@
       </c>
       <c r="O990" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P990" t="inlineStr">
@@ -77810,7 +77810,7 @@
       </c>
       <c r="O991" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P991" t="inlineStr">
@@ -77888,7 +77888,7 @@
       </c>
       <c r="O992" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P992" t="inlineStr">
@@ -77966,7 +77966,7 @@
       </c>
       <c r="O993" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P993" t="inlineStr">
@@ -78044,7 +78044,7 @@
       </c>
       <c r="O994" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P994" t="inlineStr">
@@ -78200,7 +78200,7 @@
       </c>
       <c r="O996" t="inlineStr">
         <is>
-          <t>40-50</t>
+          <t>40-49</t>
         </is>
       </c>
       <c r="P996" t="inlineStr">
@@ -78278,7 +78278,7 @@
       </c>
       <c r="O997" t="inlineStr">
         <is>
-          <t>50-60</t>
+          <t>50-59</t>
         </is>
       </c>
       <c r="P997" t="inlineStr">
@@ -78356,7 +78356,7 @@
       </c>
       <c r="O998" t="inlineStr">
         <is>
-          <t>30-40</t>
+          <t>30-39</t>
         </is>
       </c>
       <c r="P998" t="inlineStr">

--- a/data1/account.xlsx
+++ b/data1/account.xlsx
@@ -14272,7 +14272,7 @@
         <v>0</v>
       </c>
       <c r="N178">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
@@ -33736,7 +33736,7 @@
         <v>2</v>
       </c>
       <c r="N427">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O427" t="inlineStr">
         <is>
@@ -51706,7 +51706,7 @@
         <v>0</v>
       </c>
       <c r="N657">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O657" t="inlineStr">
         <is>
